--- a/databases.xlsx
+++ b/databases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ma hinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhangBui\Documents\GitHub\qlts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,7 +550,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/databases.xlsx
+++ b/databases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>người dùng</t>
   </si>
@@ -201,6 +201,36 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>id_yêu cầu</t>
+  </si>
+  <si>
+    <t>loại id</t>
+  </si>
+  <si>
+    <t>link url</t>
+  </si>
+  <si>
+    <t>số lương/đơn vị</t>
+  </si>
+  <si>
+    <t>đơn vị</t>
+  </si>
+  <si>
+    <t>số lươợng tiêu hao</t>
+  </si>
+  <si>
+    <t>phiếu</t>
+  </si>
+  <si>
+    <t>Loại phiếu</t>
+  </si>
+  <si>
+    <t>id phiếu</t>
   </si>
 </sst>
 </file>
@@ -547,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +599,7 @@
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +633,14 @@
       <c r="K1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -641,8 +677,14 @@
       <c r="L2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -679,8 +721,14 @@
       <c r="L3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -714,8 +762,14 @@
       <c r="L4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -752,8 +806,11 @@
       <c r="L5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -773,7 +830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -790,7 +847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -807,7 +864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -821,7 +878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -835,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -843,17 +900,28 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
